--- a/Divers/recherche stage/Entreprises de développement.xlsx
+++ b/Divers/recherche stage/Entreprises de développement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JRibeiro\Documents\recherche stage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JRibeiro\Documents\GitHub\ABC_2110\Divers\recherche stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3724394D-4AA0-4FA7-8585-E63110BE219A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E2CB4C-F35A-4BDB-9F22-4D49BBA316CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="15" windowWidth="18900" windowHeight="11055" xr2:uid="{183359A2-A1BF-420C-AEA2-054AD3D8D0C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{183359A2-A1BF-420C-AEA2-054AD3D8D0C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>nom de l'entreprise</t>
   </si>
@@ -69,13 +69,55 @@
     <t>Poste</t>
   </si>
   <si>
-    <t>Start people</t>
-  </si>
-  <si>
     <t>Mulhouse</t>
   </si>
   <si>
     <t>Développeur informatique</t>
+  </si>
+  <si>
+    <t>Alten</t>
+  </si>
+  <si>
+    <t>03 89 42 02 45</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>03 89 43 88 00</t>
+  </si>
+  <si>
+    <t>e-media-Concept</t>
+  </si>
+  <si>
+    <t>03 89 33 42 40</t>
+  </si>
+  <si>
+    <t>Rainbow studio</t>
+  </si>
+  <si>
+    <t>Logitud Solution</t>
+  </si>
+  <si>
+    <t>03 89 61 53 33</t>
+  </si>
+  <si>
+    <t>Newel informatique</t>
+  </si>
+  <si>
+    <t>03 89 33 05 96</t>
+  </si>
+  <si>
+    <t>03 89 32 96 96</t>
+  </si>
+  <si>
+    <t>AMTV informatique</t>
+  </si>
+  <si>
+    <t>Staffefelden</t>
+  </si>
+  <si>
+    <t>03 89 32 26 62</t>
   </si>
 </sst>
 </file>
@@ -447,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10328F9-F534-4798-8962-6B147C5C160F}">
-  <dimension ref="B3:L4"/>
+  <dimension ref="B3:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,13 +542,100 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
